--- a/rensou_game/Assets/ExcelData/Book.xlsx
+++ b/rensou_game/Assets/ExcelData/Book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>リンゴ</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>しりとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11人</t>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サッカー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +471,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,7 +501,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -490,6 +520,29 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -498,5 +551,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rensou_game/Assets/ExcelData/Book.xlsx
+++ b/rensou_game/Assets/ExcelData/Book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>リンゴ</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>hint5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -102,6 +98,354 @@
   </si>
   <si>
     <t>サッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初詣</t>
+    <rPh sb="0" eb="2">
+      <t>ハツモウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんぴつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みそ汁</t>
+    <rPh sb="2" eb="3">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごはん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大晦日</t>
+    <rPh sb="0" eb="3">
+      <t>オオミソカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃがいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なべ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にんじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福神漬け</t>
+    <rPh sb="0" eb="2">
+      <t>フクジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着物</t>
+    <rPh sb="0" eb="2">
+      <t>キモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四季</t>
+    <rPh sb="0" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島</t>
+    <rPh sb="0" eb="1">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅</t>
+    <rPh sb="0" eb="1">
+      <t>クレナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>烏龍</t>
+    <rPh sb="0" eb="2">
+      <t>ウーロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削る</t>
+    <rPh sb="0" eb="1">
+      <t>ケズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書くもの</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海藻</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <rPh sb="0" eb="2">
+      <t>ダイコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汁物</t>
+    <rPh sb="0" eb="2">
+      <t>シルモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味噌</t>
+    <rPh sb="0" eb="2">
+      <t>ミソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんべい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟</t>
+    <rPh sb="0" eb="2">
+      <t>ニイガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おにぎり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鐘</t>
+    <rPh sb="0" eb="1">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大掃除</t>
+    <rPh sb="0" eb="3">
+      <t>オオソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅白</t>
+    <rPh sb="0" eb="2">
+      <t>コウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元旦</t>
+    <rPh sb="0" eb="2">
+      <t>ガンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっかー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かれー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はつもうで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にほん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆</t>
+    <rPh sb="0" eb="2">
+      <t>エンピツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みそしる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご飯</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおみそか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -468,15 +812,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -496,10 +845,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -519,33 +871,247 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" s="2"/>
     </row>
   </sheetData>

--- a/rensou_game/Assets/ExcelData/Book.xlsx
+++ b/rensou_game/Assets/ExcelData/Book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>リンゴ</t>
     <phoneticPr fontId="1"/>
@@ -446,6 +446,30 @@
   </si>
   <si>
     <t>カレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -812,20 +836,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="1" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,25 +857,40 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -859,25 +898,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -885,25 +939,40 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -911,25 +980,40 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -937,25 +1021,40 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -963,25 +1062,40 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -989,25 +1103,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1015,25 +1144,40 @@
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1041,25 +1185,40 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1067,25 +1226,40 @@
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1093,25 +1267,40 @@
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E16" s="2"/>
     </row>
   </sheetData>

--- a/rensou_game/Assets/ExcelData/Book.xlsx
+++ b/rensou_game/Assets/ExcelData/Book.xlsx
@@ -839,7 +839,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/rensou_game/Assets/ExcelData/Book.xlsx
+++ b/rensou_game/Assets/ExcelData/Book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>リンゴ</t>
     <phoneticPr fontId="1"/>
@@ -97,50 +97,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サッカー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初詣</t>
-    <rPh sb="0" eb="2">
-      <t>ハツモウデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本</t>
-    <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お茶</t>
-    <rPh sb="1" eb="2">
-      <t>チャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>えんぴつ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みそ汁</t>
-    <rPh sb="2" eb="3">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ごはん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大晦日</t>
-    <rPh sb="0" eb="3">
-      <t>オオミソカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -391,85 +348,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>answer2</t>
+    <t>さっかー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かれー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はつもうで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にほん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みそしる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおみそか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>answer1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シリトリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さっかー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かれー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はつもうで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にほん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おちゃ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉛筆</t>
-    <rPh sb="0" eb="2">
-      <t>エンピツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みそしる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご飯</t>
-    <rPh sb="1" eb="2">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おおみそか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>images</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +423,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -508,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -531,13 +474,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +513,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,7 +819,7 @@
     <col min="13" max="13" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -857,40 +827,40 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -898,40 +868,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -939,368 +909,366 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E16" s="2"/>
     </row>
   </sheetData>
